--- a/jpcore-r4/feature/改行テスト/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-JP-Device.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="381">
   <si>
     <t>Property</t>
   </si>
@@ -148,10 +148,6 @@
     <t>その活動によって実質的に変更されることなく、ヘルスケアの提供に使用される製造されたアイテムの一種。このデバイスは、医療または非医療デバイスである場合があります。 / A type of a manufactured item that is used in the provision of healthcare without being substantially changed through that activity. The device may be a medical or non-medical device.</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Device.id</t>
   </si>
   <si>
@@ -193,208 +189,208 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>Device.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Device.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Device.meta.versionId</t>
+  </si>
+  <si>
+    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+  </si>
+  <si>
+    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
+  </si>
+  <si>
+    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Device.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>リソースのバージョンが最後に変更されたとき</t>
+  </si>
+  <si>
+    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
+  </si>
+  <si>
+    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Device.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+  </si>
+  <si>
+    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
+  </si>
+  <si>
+    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Device.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>このリソースが適合を主張するプロファイル</t>
+  </si>
+  <si>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+  </si>
+  <si>
+    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Device.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたセキュリティラベル</t>
+  </si>
+  <si>
+    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
+  </si>
+  <si>
+    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Device.meta.tag</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたタグ</t>
+  </si>
+  <si>
+    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
+  </si>
+  <si>
+    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Device.implicitRules</t>
+  </si>
+  <si>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Device.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>エレメント相互参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Device.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>実装によって定義される追加コンテンツ</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
-  </si>
-  <si>
-    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>拡張子は常にURLで切り片にされます。</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Device.meta.versionId</t>
-  </si>
-  <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
-  </si>
-  <si>
-    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
-  </si>
-  <si>
-    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Device.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>リソースのバージョンが最後に変更されたとき</t>
-  </si>
-  <si>
-    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
-  </si>
-  <si>
-    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Device.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
-  </si>
-  <si>
-    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
-  </si>
-  <si>
-    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Device.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>このリソースが適合を主張するプロファイル</t>
-  </si>
-  <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
-  </si>
-  <si>
-    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Device.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたセキュリティラベル</t>
-  </si>
-  <si>
-    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
-  </si>
-  <si>
-    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Device.meta.tag</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたタグ</t>
-  </si>
-  <si>
-    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
-  </si>
-  <si>
-    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Device.implicitRules</t>
-  </si>
-  <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
   </si>
   <si>
     <t>Device.language</t>
@@ -1698,7 +1694,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>30</v>
@@ -1712,10 +1708,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1726,28 +1722,28 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>50</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1797,13 +1793,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -1823,10 +1819,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1837,25 +1833,25 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1906,19 +1902,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -1932,10 +1928,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1946,7 +1942,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
@@ -1958,13 +1954,13 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2015,13 +2011,13 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
@@ -2030,7 +2026,7 @@
         <v>37</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>37</v>
@@ -2041,14 +2037,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2067,16 +2063,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2114,19 +2110,19 @@
         <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="AC5" t="s" s="2">
+      <c r="AF5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -2138,10 +2134,10 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>37</v>
@@ -2152,10 +2148,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2166,28 +2162,28 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2237,19 +2233,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -2263,10 +2259,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2277,28 +2273,28 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="I7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2348,19 +2344,19 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>37</v>
@@ -2374,10 +2370,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2388,28 +2384,28 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2459,19 +2455,19 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2485,10 +2481,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2508,19 +2504,19 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2570,7 +2566,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2582,7 +2578,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -2596,10 +2592,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2619,19 +2615,19 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2657,31 +2653,31 @@
         <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="Z10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2693,7 +2689,7 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
@@ -2707,10 +2703,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2730,19 +2726,19 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2768,31 +2764,31 @@
         <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -2804,7 +2800,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -2818,10 +2814,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2832,28 +2828,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2903,19 +2899,19 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
@@ -2929,10 +2925,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2943,7 +2939,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -2955,16 +2951,16 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2990,43 +2986,43 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>129</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
@@ -3040,21 +3036,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -3066,16 +3062,16 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3125,22 +3121,22 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>37</v>
@@ -3151,14 +3147,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3177,16 +3173,16 @@
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3236,7 +3232,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3251,7 +3247,7 @@
         <v>37</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>37</v>
@@ -3262,14 +3258,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3288,16 +3284,16 @@
         <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3347,7 +3343,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -3359,10 +3355,10 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>37</v>
@@ -3373,14 +3369,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3393,25 +3389,25 @@
         <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -3460,7 +3456,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -3472,10 +3468,10 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>37</v>
@@ -3486,10 +3482,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3512,16 +3508,16 @@
         <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3571,7 +3567,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -3583,24 +3579,24 @@
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3611,7 +3607,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -3623,13 +3619,13 @@
         <v>37</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3680,19 +3676,19 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
@@ -3706,10 +3702,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3729,19 +3725,19 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3791,7 +3787,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -3803,13 +3799,13 @@
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>37</v>
@@ -3817,10 +3813,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3831,7 +3827,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>37</v>
@@ -3843,13 +3839,13 @@
         <v>37</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3900,13 +3896,13 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>37</v>
@@ -3915,7 +3911,7 @@
         <v>37</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>37</v>
@@ -3926,14 +3922,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3952,16 +3948,16 @@
         <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4011,7 +4007,7 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
@@ -4023,10 +4019,10 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>37</v>
@@ -4037,14 +4033,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4057,25 +4053,25 @@
         <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="N23" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
@@ -4124,7 +4120,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -4136,10 +4132,10 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>37</v>
@@ -4150,39 +4146,39 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K24" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4233,47 +4229,47 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -4285,13 +4281,13 @@
         <v>37</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4342,36 +4338,36 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4382,7 +4378,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -4394,17 +4390,17 @@
         <v>37</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>37</v>
@@ -4453,22 +4449,22 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>37</v>
@@ -4479,42 +4475,42 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4564,68 +4560,68 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4675,36 +4671,36 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4715,7 +4711,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
@@ -4727,17 +4723,17 @@
         <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>37</v>
@@ -4762,46 +4758,46 @@
         <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>37</v>
@@ -4812,10 +4808,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4826,28 +4822,28 @@
         <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4873,49 +4869,49 @@
         <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Z30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>37</v>
@@ -4923,10 +4919,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4949,13 +4945,13 @@
         <v>37</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4982,14 +4978,14 @@
         <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>37</v>
       </c>
@@ -5006,7 +5002,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5018,13 +5014,13 @@
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>37</v>
@@ -5032,21 +5028,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -5058,16 +5054,16 @@
         <v>37</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5117,36 +5113,36 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5157,7 +5153,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>37</v>
@@ -5169,13 +5165,13 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5226,36 +5222,36 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5266,7 +5262,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -5278,13 +5274,13 @@
         <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5335,36 +5331,36 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5375,7 +5371,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -5387,13 +5383,13 @@
         <v>37</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5444,36 +5440,36 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5484,7 +5480,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>37</v>
@@ -5496,13 +5492,13 @@
         <v>37</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5553,36 +5549,36 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>244</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5593,7 +5589,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
@@ -5605,16 +5601,16 @@
         <v>37</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5664,25 +5660,25 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>37</v>
@@ -5690,10 +5686,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5716,13 +5712,13 @@
         <v>37</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5773,7 +5769,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -5785,7 +5781,7 @@
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
@@ -5799,10 +5795,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5813,7 +5809,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -5825,13 +5821,13 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5882,13 +5878,13 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
@@ -5897,7 +5893,7 @@
         <v>37</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>37</v>
@@ -5908,14 +5904,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5934,16 +5930,16 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -5993,7 +5989,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6005,10 +6001,10 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>37</v>
@@ -6019,14 +6015,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6039,25 +6035,25 @@
         <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="N41" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>37</v>
@@ -6106,7 +6102,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -6118,10 +6114,10 @@
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>37</v>
@@ -6132,21 +6128,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>37</v>
@@ -6158,13 +6154,13 @@
         <v>37</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6215,19 +6211,19 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
@@ -6241,10 +6237,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6252,10 +6248,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>37</v>
@@ -6267,13 +6263,13 @@
         <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6300,49 +6296,49 @@
         <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Z43" t="s" s="2">
+      <c r="AA43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AA43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="AL43" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>37</v>
@@ -6350,10 +6346,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6364,7 +6360,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -6376,13 +6372,13 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6433,25 +6429,25 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>37</v>
@@ -6459,10 +6455,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6473,7 +6469,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>37</v>
@@ -6485,16 +6481,16 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6544,25 +6540,25 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>37</v>
@@ -6570,10 +6566,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6584,7 +6580,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>37</v>
@@ -6596,13 +6592,13 @@
         <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6629,14 +6625,14 @@
         <v>37</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="AA46" t="s" s="2">
         <v>37</v>
       </c>
@@ -6653,19 +6649,19 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -6679,10 +6675,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6705,13 +6701,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6762,7 +6758,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -6774,7 +6770,7 @@
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
@@ -6788,10 +6784,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6802,7 +6798,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>37</v>
@@ -6814,13 +6810,13 @@
         <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6871,13 +6867,13 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>37</v>
@@ -6886,7 +6882,7 @@
         <v>37</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>37</v>
@@ -6897,14 +6893,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -6923,16 +6919,16 @@
         <v>37</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -6982,7 +6978,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -6994,10 +6990,10 @@
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>37</v>
@@ -7008,14 +7004,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7028,25 +7024,25 @@
         <v>37</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7095,7 +7091,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
@@ -7107,10 +7103,10 @@
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>37</v>
@@ -7121,21 +7117,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7147,13 +7143,13 @@
         <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7204,19 +7200,19 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
@@ -7230,10 +7226,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7244,7 +7240,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -7256,13 +7252,13 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7313,25 +7309,25 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>37</v>
@@ -7339,10 +7335,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7365,13 +7361,13 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7422,7 +7418,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -7434,7 +7430,7 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
@@ -7448,10 +7444,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7462,7 +7458,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -7474,13 +7470,13 @@
         <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7531,13 +7527,13 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>37</v>
@@ -7546,7 +7542,7 @@
         <v>37</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>37</v>
@@ -7557,14 +7553,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7583,16 +7579,16 @@
         <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7642,7 +7638,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -7654,10 +7650,10 @@
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>37</v>
@@ -7668,14 +7664,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7688,25 +7684,25 @@
         <v>37</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -7755,7 +7751,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -7767,10 +7763,10 @@
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>37</v>
@@ -7781,21 +7777,21 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>37</v>
@@ -7807,13 +7803,13 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7864,19 +7860,19 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>37</v>
@@ -7890,10 +7886,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7904,7 +7900,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -7916,13 +7912,13 @@
         <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7973,25 +7969,25 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>37</v>
@@ -7999,10 +7995,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8010,10 +8006,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -8025,13 +8021,13 @@
         <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8082,19 +8078,19 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
@@ -8108,10 +8104,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8134,13 +8130,13 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8191,7 +8187,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -8203,7 +8199,7 @@
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
@@ -8217,10 +8213,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8231,7 +8227,7 @@
         <v>38</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>37</v>
@@ -8243,13 +8239,13 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8300,13 +8296,13 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>37</v>
@@ -8315,7 +8311,7 @@
         <v>37</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>37</v>
@@ -8326,14 +8322,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8352,16 +8348,16 @@
         <v>37</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8411,7 +8407,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -8423,10 +8419,10 @@
         <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>37</v>
@@ -8437,14 +8433,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8457,25 +8453,25 @@
         <v>37</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>183</v>
-      </c>
       <c r="N63" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>37</v>
@@ -8524,7 +8520,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -8536,10 +8532,10 @@
         <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>37</v>
@@ -8550,10 +8546,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8561,10 +8557,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>37</v>
@@ -8576,13 +8572,13 @@
         <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8633,19 +8629,19 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
@@ -8659,10 +8655,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8685,13 +8681,13 @@
         <v>37</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8742,7 +8738,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -8754,7 +8750,7 @@
         <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>37</v>
@@ -8768,10 +8764,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8794,13 +8790,13 @@
         <v>37</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8851,7 +8847,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -8863,7 +8859,7 @@
         <v>37</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>37</v>
@@ -8877,10 +8873,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8891,7 +8887,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>37</v>
@@ -8903,17 +8899,17 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>37</v>
@@ -8962,25 +8958,25 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>37</v>
@@ -8988,10 +8984,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9002,7 +8998,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>37</v>
@@ -9014,13 +9010,13 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9071,25 +9067,25 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>37</v>
@@ -9097,10 +9093,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9123,16 +9119,16 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9182,7 +9178,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
@@ -9194,13 +9190,13 @@
         <v>37</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>37</v>
@@ -9208,10 +9204,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9222,7 +9218,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>37</v>
@@ -9234,17 +9230,17 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>37</v>
@@ -9293,25 +9289,25 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>37</v>
@@ -9319,10 +9315,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9333,7 +9329,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>37</v>
@@ -9345,16 +9341,16 @@
         <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9404,25 +9400,25 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>37</v>
@@ -9430,10 +9426,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9456,13 +9452,13 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9513,7 +9509,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -9525,10 +9521,10 @@
         <v>37</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>37</v>
@@ -9539,10 +9535,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9562,16 +9558,16 @@
         <v>37</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9622,7 +9618,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -9634,10 +9630,10 @@
         <v>37</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>37</v>
@@ -9648,10 +9644,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9662,7 +9658,7 @@
         <v>38</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>37</v>
@@ -9674,13 +9670,13 @@
         <v>37</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9731,19 +9727,19 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>37</v>
